--- a/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
+++ b/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
@@ -2032,13 +2032,13 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
+    <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
   </si>
   <si>
     <t>,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
+    <t>,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint Agent Smith)</t>
@@ -2059,7 +2059,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: Zimperium z9)</t>
+    <t>,(Citation: Trend Micro Anubis),(Citation: Zimperium z9),(Citation: Cofense Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2071,7 +2071,7 @@
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
+    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -2083,7 +2083,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus)</t>
+    <t>,(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2143,13 +2143,13 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features)</t>
+    <t>,(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy)</t>
   </si>
   <si>
     <t>,(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
   </si>
   <si>
-    <t>,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
+    <t>,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
   </si>
   <si>
     <t>,(Citation: Lookout FrozenCell)</t>
@@ -2185,13 +2185,13 @@
     <t>,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
+    <t>,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
+    <t>,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
     <t>,(Citation: Bitdefender Mandrake)</t>
@@ -2203,7 +2203,7 @@
     <t>,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
+    <t>,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-NotCompatible)</t>
@@ -2275,7 +2275,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019)</t>
+    <t>,(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2287,7 +2287,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
+    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>
@@ -2302,7 +2302,7 @@
     <t>(Citation: CrowdStrike-Android),(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
+    <t>,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-XLoader-FakeSpy)</t>

--- a/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
+++ b/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
@@ -2059,7 +2059,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Trend Micro Anubis),(Citation: Zimperium z9),(Citation: Cofense Anubis)</t>
+    <t>,(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: Zimperium z9)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2071,7 +2071,7 @@
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
+    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -2083,7 +2083,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus)</t>
+    <t>,(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Forbes Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2113,7 +2113,7 @@
     <t>,(Citation: cyble_drinik_1022)</t>
   </si>
   <si>
-    <t>,(Citation: Proofpoint-Droidjack),(Citation: Zscaler-SuperMarioRun)</t>
+    <t>,(Citation: Zscaler-SuperMarioRun),(Citation: Proofpoint-Droidjack)</t>
   </si>
   <si>
     <t>,(Citation: PaloAlto-DualToy)</t>
@@ -2143,13 +2143,13 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy)</t>
+    <t>,(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy)</t>
   </si>
   <si>
     <t>,(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
   </si>
   <si>
-    <t>,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
+    <t>,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
   </si>
   <si>
     <t>,(Citation: Lookout FrozenCell)</t>
@@ -2185,7 +2185,7 @@
     <t>,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
+    <t>,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Judy)</t>
@@ -2203,7 +2203,7 @@
     <t>,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
+    <t>,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-NotCompatible)</t>
@@ -2275,7 +2275,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016)</t>
+    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Krebs-Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2287,7 +2287,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
+    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>
@@ -2302,7 +2302,7 @@
     <t>(Citation: CrowdStrike-Android),(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
+    <t>,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-XLoader-FakeSpy)</t>
@@ -2311,7 +2311,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
   </si>
   <si>
     <t>,(Citation: paloalto_yispecter_1015)</t>

--- a/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
+++ b/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
@@ -2032,7 +2032,7 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
+    <t>,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
   </si>
   <si>
     <t>,(Citation: lookout_abstractemu_1021)</t>
@@ -2059,7 +2059,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Cofense Anubis),(Citation: Trend Micro Anubis),(Citation: Zimperium z9)</t>
+    <t>,(Citation: Trend Micro Anubis),(Citation: Zimperium z9),(Citation: Cofense Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2071,7 +2071,7 @@
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
+    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -2083,7 +2083,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus),(Citation: Forbes Cerberus)</t>
+    <t>,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2113,7 +2113,7 @@
     <t>,(Citation: cyble_drinik_1022)</t>
   </si>
   <si>
-    <t>,(Citation: Zscaler-SuperMarioRun),(Citation: Proofpoint-Droidjack)</t>
+    <t>,(Citation: Proofpoint-Droidjack),(Citation: Zscaler-SuperMarioRun)</t>
   </si>
   <si>
     <t>,(Citation: PaloAlto-DualToy)</t>
@@ -2143,10 +2143,10 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy)</t>
-  </si>
-  <si>
-    <t>,(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
+    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy)</t>
+  </si>
+  <si>
+    <t>,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
   </si>
   <si>
     <t>,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
@@ -2170,7 +2170,7 @@
     <t>,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
+    <t>,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
   </si>
   <si>
     <t>,(Citation: Palo Alto HenBox)</t>
@@ -2185,13 +2185,13 @@
     <t>,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
+    <t>,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
+    <t>,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
   </si>
   <si>
     <t>,(Citation: Bitdefender Mandrake)</t>
@@ -2275,7 +2275,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Krebs-Triada June 2019)</t>
+    <t>,(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2302,7 +2302,7 @@
     <t>(Citation: CrowdStrike-Android),(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
+    <t>,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-XLoader-FakeSpy)</t>

--- a/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
+++ b/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
@@ -2032,13 +2032,13 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
+    <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
   </si>
   <si>
     <t>,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
+    <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint Agent Smith)</t>
@@ -2059,7 +2059,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Trend Micro Anubis),(Citation: Zimperium z9),(Citation: Cofense Anubis)</t>
+    <t>,(Citation: Zimperium z9),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2071,7 +2071,7 @@
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
+    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -2083,7 +2083,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus)</t>
+    <t>,(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2113,7 +2113,7 @@
     <t>,(Citation: cyble_drinik_1022)</t>
   </si>
   <si>
-    <t>,(Citation: Proofpoint-Droidjack),(Citation: Zscaler-SuperMarioRun)</t>
+    <t>,(Citation: Zscaler-SuperMarioRun),(Citation: Proofpoint-Droidjack)</t>
   </si>
   <si>
     <t>,(Citation: PaloAlto-DualToy)</t>
@@ -2146,10 +2146,10 @@
     <t>,(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy)</t>
   </si>
   <si>
-    <t>,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
-  </si>
-  <si>
-    <t>,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
+    <t>,(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
+  </si>
+  <si>
+    <t>,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
   </si>
   <si>
     <t>,(Citation: Lookout FrozenCell)</t>
@@ -2170,7 +2170,7 @@
     <t>,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
+    <t>,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
   </si>
   <si>
     <t>,(Citation: Palo Alto HenBox)</t>
@@ -2185,13 +2185,13 @@
     <t>,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
+    <t>,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
+    <t>,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
     <t>,(Citation: Bitdefender Mandrake)</t>
@@ -2203,7 +2203,7 @@
     <t>,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
+    <t>,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-NotCompatible)</t>
@@ -2275,7 +2275,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Google Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016)</t>
+    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2287,7 +2287,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
+    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>

--- a/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
+++ b/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
@@ -2038,7 +2038,7 @@
     <t>,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
+    <t>,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint Agent Smith)</t>
@@ -2059,7 +2059,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Zimperium z9),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis)</t>
+    <t>,(Citation: Cofense Anubis),(Citation: Zimperium z9),(Citation: Trend Micro Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2083,7 +2083,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus)</t>
+    <t>,(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2143,13 +2143,13 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy)</t>
-  </si>
-  <si>
-    <t>,(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
-  </si>
-  <si>
-    <t>,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
+    <t>,(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy)</t>
+  </si>
+  <si>
+    <t>,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
+  </si>
+  <si>
+    <t>,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
   </si>
   <si>
     <t>,(Citation: Lookout FrozenCell)</t>
@@ -2170,7 +2170,7 @@
     <t>,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
+    <t>,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
   </si>
   <si>
     <t>,(Citation: Palo Alto HenBox)</t>
@@ -2185,7 +2185,7 @@
     <t>,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
+    <t>,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Judy)</t>
@@ -2239,7 +2239,7 @@
     <t>,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
+    <t>,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
   </si>
   <si>
     <t>,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2275,7 +2275,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019)</t>
+    <t>,(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2287,7 +2287,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
+    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>
@@ -2302,7 +2302,7 @@
     <t>(Citation: CrowdStrike-Android),(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
+    <t>,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-XLoader-FakeSpy)</t>

--- a/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
+++ b/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
@@ -2032,13 +2032,13 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
+    <t>,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
   </si>
   <si>
     <t>,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
+    <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint Agent Smith)</t>
@@ -2059,7 +2059,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Cofense Anubis),(Citation: Zimperium z9),(Citation: Trend Micro Anubis)</t>
+    <t>,(Citation: Zimperium z9),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2083,7 +2083,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus)</t>
+    <t>,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2113,7 +2113,7 @@
     <t>,(Citation: cyble_drinik_1022)</t>
   </si>
   <si>
-    <t>,(Citation: Zscaler-SuperMarioRun),(Citation: Proofpoint-Droidjack)</t>
+    <t>,(Citation: Proofpoint-Droidjack),(Citation: Zscaler-SuperMarioRun)</t>
   </si>
   <si>
     <t>,(Citation: PaloAlto-DualToy)</t>
@@ -2143,10 +2143,10 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy)</t>
-  </si>
-  <si>
-    <t>,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
+    <t>,(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy)</t>
+  </si>
+  <si>
+    <t>,(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
   </si>
   <si>
     <t>,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
@@ -2275,7 +2275,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016)</t>
+    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2287,7 +2287,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
+    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>
@@ -2302,7 +2302,7 @@
     <t>(Citation: CrowdStrike-Android),(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
+    <t>,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-XLoader-FakeSpy)</t>
@@ -2311,7 +2311,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
   </si>
   <si>
     <t>,(Citation: paloalto_yispecter_1015)</t>

--- a/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
+++ b/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
@@ -2038,7 +2038,7 @@
     <t>,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
+    <t>,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint Agent Smith)</t>
@@ -2059,7 +2059,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Zimperium z9),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis)</t>
+    <t>,(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: Zimperium z9)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2083,7 +2083,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus)</t>
+    <t>,(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2113,7 +2113,7 @@
     <t>,(Citation: cyble_drinik_1022)</t>
   </si>
   <si>
-    <t>,(Citation: Proofpoint-Droidjack),(Citation: Zscaler-SuperMarioRun)</t>
+    <t>,(Citation: Zscaler-SuperMarioRun),(Citation: Proofpoint-Droidjack)</t>
   </si>
   <si>
     <t>,(Citation: PaloAlto-DualToy)</t>
@@ -2143,10 +2143,10 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy)</t>
-  </si>
-  <si>
-    <t>,(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
+    <t>,(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features)</t>
+  </si>
+  <si>
+    <t>,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
   </si>
   <si>
     <t>,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
@@ -2170,7 +2170,7 @@
     <t>,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
+    <t>,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
   </si>
   <si>
     <t>,(Citation: Palo Alto HenBox)</t>
@@ -2191,7 +2191,7 @@
     <t>,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
+    <t>,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
   </si>
   <si>
     <t>,(Citation: Bitdefender Mandrake)</t>
@@ -2203,7 +2203,7 @@
     <t>,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
+    <t>,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-NotCompatible)</t>
@@ -2239,7 +2239,7 @@
     <t>,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
+    <t>,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
   </si>
   <si>
     <t>,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2275,7 +2275,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016)</t>
+    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2311,7 +2311,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
   </si>
   <si>
     <t>,(Citation: paloalto_yispecter_1015)</t>

--- a/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
+++ b/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
@@ -2032,13 +2032,13 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
+    <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
   </si>
   <si>
     <t>,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
+    <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint Agent Smith)</t>
@@ -2059,7 +2059,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: Zimperium z9)</t>
+    <t>,(Citation: Trend Micro Anubis),(Citation: Zimperium z9),(Citation: Cofense Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2071,7 +2071,7 @@
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
+    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -2083,7 +2083,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus),(Citation: CheckPoint Cerberus)</t>
+    <t>,(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2113,7 +2113,7 @@
     <t>,(Citation: cyble_drinik_1022)</t>
   </si>
   <si>
-    <t>,(Citation: Zscaler-SuperMarioRun),(Citation: Proofpoint-Droidjack)</t>
+    <t>,(Citation: Proofpoint-Droidjack),(Citation: Zscaler-SuperMarioRun)</t>
   </si>
   <si>
     <t>,(Citation: PaloAlto-DualToy)</t>
@@ -2143,10 +2143,10 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features)</t>
-  </si>
-  <si>
-    <t>,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
+    <t>,(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy)</t>
+  </si>
+  <si>
+    <t>,(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
   </si>
   <si>
     <t>,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
@@ -2170,7 +2170,7 @@
     <t>,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
+    <t>,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
   </si>
   <si>
     <t>,(Citation: Palo Alto HenBox)</t>
@@ -2191,7 +2191,7 @@
     <t>,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
+    <t>,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
     <t>,(Citation: Bitdefender Mandrake)</t>
@@ -2203,7 +2203,7 @@
     <t>,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
+    <t>,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-NotCompatible)</t>
@@ -2239,7 +2239,7 @@
     <t>,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
+    <t>,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
   </si>
   <si>
     <t>,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2275,7 +2275,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019)</t>
+    <t>,(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2287,7 +2287,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
+    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>
@@ -2302,7 +2302,7 @@
     <t>(Citation: CrowdStrike-Android),(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
+    <t>,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-XLoader-FakeSpy)</t>
@@ -2311,7 +2311,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
   </si>
   <si>
     <t>,(Citation: paloalto_yispecter_1015)</t>

--- a/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
+++ b/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
@@ -2032,13 +2032,13 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
+    <t>,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
   </si>
   <si>
     <t>,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
+    <t>,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint Agent Smith)</t>
@@ -2059,7 +2059,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Trend Micro Anubis),(Citation: Zimperium z9),(Citation: Cofense Anubis)</t>
+    <t>,(Citation: Cofense Anubis),(Citation: Zimperium z9),(Citation: Trend Micro Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2113,7 +2113,7 @@
     <t>,(Citation: cyble_drinik_1022)</t>
   </si>
   <si>
-    <t>,(Citation: Proofpoint-Droidjack),(Citation: Zscaler-SuperMarioRun)</t>
+    <t>,(Citation: Zscaler-SuperMarioRun),(Citation: Proofpoint-Droidjack)</t>
   </si>
   <si>
     <t>,(Citation: PaloAlto-DualToy)</t>
@@ -2143,7 +2143,7 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy)</t>
+    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy)</t>
   </si>
   <si>
     <t>,(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
@@ -2185,7 +2185,7 @@
     <t>,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
+    <t>,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Judy)</t>
@@ -2239,7 +2239,7 @@
     <t>,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
+    <t>,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
   </si>
   <si>
     <t>,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2275,7 +2275,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019)</t>
+    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2287,7 +2287,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
+    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>
@@ -2311,7 +2311,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
   </si>
   <si>
     <t>,(Citation: paloalto_yispecter_1015)</t>

--- a/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
+++ b/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
@@ -2032,13 +2032,13 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
+    <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
   </si>
   <si>
     <t>,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
+    <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint Agent Smith)</t>
@@ -2059,7 +2059,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Cofense Anubis),(Citation: Zimperium z9),(Citation: Trend Micro Anubis)</t>
+    <t>,(Citation: Zimperium z9),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2071,7 +2071,7 @@
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
+    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -2083,7 +2083,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus),(Citation: CheckPoint Cerberus)</t>
+    <t>,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2143,10 +2143,10 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy)</t>
-  </si>
-  <si>
-    <t>,(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
+    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features)</t>
+  </si>
+  <si>
+    <t>,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
   </si>
   <si>
     <t>,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
@@ -2191,7 +2191,7 @@
     <t>,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
+    <t>,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
   </si>
   <si>
     <t>,(Citation: Bitdefender Mandrake)</t>
@@ -2203,7 +2203,7 @@
     <t>,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
+    <t>,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-NotCompatible)</t>
@@ -2239,7 +2239,7 @@
     <t>,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
+    <t>,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
   </si>
   <si>
     <t>,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2275,7 +2275,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016)</t>
+    <t>,(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada June 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2287,7 +2287,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
+    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>
@@ -2311,7 +2311,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
   </si>
   <si>
     <t>,(Citation: paloalto_yispecter_1015)</t>

--- a/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
+++ b/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
@@ -2032,13 +2032,13 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
+    <t>,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
   </si>
   <si>
     <t>,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
+    <t>,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint Agent Smith)</t>
@@ -2071,7 +2071,7 @@
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
+    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -2083,7 +2083,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus)</t>
+    <t>,(Citation: CheckPoint Cerberus),(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2113,7 +2113,7 @@
     <t>,(Citation: cyble_drinik_1022)</t>
   </si>
   <si>
-    <t>,(Citation: Zscaler-SuperMarioRun),(Citation: Proofpoint-Droidjack)</t>
+    <t>,(Citation: Proofpoint-Droidjack),(Citation: Zscaler-SuperMarioRun)</t>
   </si>
   <si>
     <t>,(Citation: PaloAlto-DualToy)</t>
@@ -2143,7 +2143,7 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features)</t>
+    <t>,(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy)</t>
   </si>
   <si>
     <t>,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
@@ -2185,7 +2185,7 @@
     <t>,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
+    <t>,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Judy)</t>
@@ -2275,7 +2275,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada June 2016)</t>
+    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016),(Citation: Krebs-Triada June 2019),(Citation: Google Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2302,7 +2302,7 @@
     <t>(Citation: CrowdStrike-Android),(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
+    <t>,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-XLoader-FakeSpy)</t>
@@ -2311,7 +2311,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
   </si>
   <si>
     <t>,(Citation: paloalto_yispecter_1015)</t>

--- a/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
+++ b/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
@@ -2059,7 +2059,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Zimperium z9),(Citation: Trend Micro Anubis),(Citation: Cofense Anubis)</t>
+    <t>,(Citation: Trend Micro Anubis),(Citation: Zimperium z9),(Citation: Cofense Anubis)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2071,7 +2071,7 @@
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
+    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -2113,7 +2113,7 @@
     <t>,(Citation: cyble_drinik_1022)</t>
   </si>
   <si>
-    <t>,(Citation: Proofpoint-Droidjack),(Citation: Zscaler-SuperMarioRun)</t>
+    <t>,(Citation: Zscaler-SuperMarioRun),(Citation: Proofpoint-Droidjack)</t>
   </si>
   <si>
     <t>,(Citation: PaloAlto-DualToy)</t>
@@ -2143,7 +2143,7 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FlexiSpy-Features),(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy)</t>
+    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features)</t>
   </si>
   <si>
     <t>,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
@@ -2170,7 +2170,7 @@
     <t>,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
+    <t>,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
   </si>
   <si>
     <t>,(Citation: Palo Alto HenBox)</t>
@@ -2185,13 +2185,13 @@
     <t>,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
+    <t>,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
+    <t>,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
     <t>,(Citation: Bitdefender Mandrake)</t>
@@ -2203,7 +2203,7 @@
     <t>,(Citation: Tripwire-MazarBOT)</t>
   </si>
   <si>
-    <t>,(Citation: Xiao-KeyRaider),(Citation: Lookout-Monokle)</t>
+    <t>,(Citation: Lookout-Monokle),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
     <t>,(Citation: Lookout-NotCompatible)</t>
@@ -2239,7 +2239,7 @@
     <t>,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
+    <t>,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
   </si>
   <si>
     <t>,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2275,7 +2275,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Kaspersky Triada March 2016),(Citation: Krebs-Triada June 2019),(Citation: Google Triada June 2019)</t>
+    <t>,(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>

--- a/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
+++ b/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
@@ -2032,13 +2032,13 @@
     <t>tool</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-Anserver2),(Citation: TrendMicro-Anserver)</t>
+    <t>,(Citation: TrendMicro-Anserver),(Citation: TrendMicro-Anserver2)</t>
   </si>
   <si>
     <t>,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
+    <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint Agent Smith)</t>
@@ -2113,7 +2113,7 @@
     <t>,(Citation: cyble_drinik_1022)</t>
   </si>
   <si>
-    <t>,(Citation: Zscaler-SuperMarioRun),(Citation: Proofpoint-Droidjack)</t>
+    <t>,(Citation: Proofpoint-Droidjack),(Citation: Zscaler-SuperMarioRun)</t>
   </si>
   <si>
     <t>,(Citation: PaloAlto-DualToy)</t>
@@ -2143,13 +2143,13 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: CyberMerchants-FlexiSpy),(Citation: FlexiSpy-Features)</t>
+    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy)</t>
   </si>
   <si>
     <t>,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
   </si>
   <si>
-    <t>,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
+    <t>,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
   </si>
   <si>
     <t>,(Citation: Lookout FrozenCell)</t>
@@ -2170,7 +2170,7 @@
     <t>,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
+    <t>,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
   </si>
   <si>
     <t>,(Citation: Palo Alto HenBox)</t>
@@ -2185,13 +2185,13 @@
     <t>,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
+    <t>,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
+    <t>,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
   </si>
   <si>
     <t>,(Citation: Bitdefender Mandrake)</t>
@@ -2239,7 +2239,7 @@
     <t>,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
+    <t>,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
   </si>
   <si>
     <t>,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2275,7 +2275,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019),(Citation: Kaspersky Triada March 2016)</t>
+    <t>,(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2287,7 +2287,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
+    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>
@@ -2302,7 +2302,7 @@
     <t>(Citation: CrowdStrike-Android),(Citation: CrowdStrike-Android)</t>
   </si>
   <si>
-    <t>,(Citation: TrendMicro-XLoader),(Citation: TrendMicro-XLoader-FakeSpy)</t>
+    <t>,(Citation: TrendMicro-XLoader-FakeSpy),(Citation: TrendMicro-XLoader)</t>
   </si>
   <si>
     <t>,(Citation: TrendMicro-XLoader-FakeSpy)</t>
@@ -2311,7 +2311,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
   </si>
   <si>
     <t>,(Citation: paloalto_yispecter_1015)</t>

--- a/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
+++ b/docs/mobile-attack-v14.1/mobile-attack-v14.1-software.xlsx
@@ -2038,7 +2038,7 @@
     <t>,(Citation: lookout_abstractemu_1021)</t>
   </si>
   <si>
-    <t>,(Citation: BankInfoSecurity-BackDoor),(Citation: NYTimes-BackDoor)</t>
+    <t>,(Citation: NYTimes-BackDoor),(Citation: BankInfoSecurity-BackDoor)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint Agent Smith)</t>
@@ -2059,7 +2059,7 @@
     <t>,(Citation: Microsoft MalLockerB)</t>
   </si>
   <si>
-    <t>,(Citation: Trend Micro Anubis),(Citation: Zimperium z9),(Citation: Cofense Anubis)</t>
+    <t>,(Citation: Trend Micro Anubis),(Citation: Cofense Anubis),(Citation: Zimperium z9)</t>
   </si>
   <si>
     <t>,(Citation: Securelist Asacub)</t>
@@ -2071,7 +2071,7 @@
     <t>,(Citation: Lookout-BrainTest)</t>
   </si>
   <si>
-    <t>,(Citation: Check Point-Joker),(Citation: Google Bread)</t>
+    <t>,(Citation: Google Bread),(Citation: Check Point-Joker)</t>
   </si>
   <si>
     <t>,(Citation: SecureList BusyGasper)</t>
@@ -2083,7 +2083,7 @@
     <t>,(Citation: Lookout Uyghur Campaign)</t>
   </si>
   <si>
-    <t>,(Citation: CheckPoint Cerberus),(Citation: Forbes Cerberus),(Citation: Threat Fabric Cerberus)</t>
+    <t>,(Citation: CheckPoint Cerberus),(Citation: Threat Fabric Cerberus),(Citation: Forbes Cerberus)</t>
   </si>
   <si>
     <t>,(Citation: cyble_chameleon_0423)</t>
@@ -2113,7 +2113,7 @@
     <t>,(Citation: cyble_drinik_1022)</t>
   </si>
   <si>
-    <t>,(Citation: Proofpoint-Droidjack),(Citation: Zscaler-SuperMarioRun)</t>
+    <t>,(Citation: Zscaler-SuperMarioRun),(Citation: Proofpoint-Droidjack)</t>
   </si>
   <si>
     <t>,(Citation: PaloAlto-DualToy)</t>
@@ -2143,13 +2143,13 @@
     <t>(Citation: Lookout Dark Caracal Jan 2018),(Citation: Lookout Dark Caracal Jan 2018)</t>
   </si>
   <si>
-    <t>,(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features),(Citation: CyberMerchants-FlexiSpy)</t>
-  </si>
-  <si>
-    <t>,(Citation: proofpoint_flubot_0421),(Citation: bitdefender_flubot_0524)</t>
-  </si>
-  <si>
-    <t>,(Citation: Trend Micro FlyTrap),(Citation: Zimperium FlyTrap)</t>
+    <t>,(Citation: CyberMerchants-FlexiSpy),(Citation: FortiGuard-FlexiSpy),(Citation: FlexiSpy-Features)</t>
+  </si>
+  <si>
+    <t>,(Citation: bitdefender_flubot_0524),(Citation: proofpoint_flubot_0421)</t>
+  </si>
+  <si>
+    <t>,(Citation: Zimperium FlyTrap),(Citation: Trend Micro FlyTrap)</t>
   </si>
   <si>
     <t>,(Citation: Lookout FrozenCell)</t>
@@ -2170,7 +2170,7 @@
     <t>,(Citation: Gooligan Citation)</t>
   </si>
   <si>
-    <t>,(Citation: Group IB Gustuff Mar 2019),(Citation: Talos Gustuff Apr 2019)</t>
+    <t>,(Citation: Talos Gustuff Apr 2019),(Citation: Group IB Gustuff Mar 2019)</t>
   </si>
   <si>
     <t>,(Citation: Palo Alto HenBox)</t>
@@ -2185,13 +2185,13 @@
     <t>,(Citation: ArsTechnica-HummingWhale)</t>
   </si>
   <si>
-    <t>,(Citation: Google Project Zero Insomnia),(Citation: Volexity Insomnia)</t>
+    <t>,(Citation: Volexity Insomnia),(Citation: Google Project Zero Insomnia)</t>
   </si>
   <si>
     <t>,(Citation: CheckPoint-Judy)</t>
   </si>
   <si>
-    <t>,(Citation: Xiao-KeyRaider),(Citation: Skycure-Profiles)</t>
+    <t>,(Citation: Skycure-Profiles),(Citation: Xiao-KeyRaider)</t>
   </si>
   <si>
     <t>,(Citation: Bitdefender Mandrake)</t>
@@ -2239,7 +2239,7 @@
     <t>,(Citation: FireEye-RuMMS)</t>
   </si>
   <si>
-    <t>,(Citation: threatfabric_sova_0921),(Citation: cleafy_sova_1122)</t>
+    <t>,(Citation: cleafy_sova_1122),(Citation: threatfabric_sova_0921)</t>
   </si>
   <si>
     <t>,(Citation: nccgroup_sharkbot_0322)</t>
@@ -2275,7 +2275,7 @@
     <t>,(Citation: Zscaler TikTok Spyware)</t>
   </si>
   <si>
-    <t>,(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Kaspersky Triada June 2016),(Citation: Google Triada June 2019)</t>
+    <t>,(Citation: Kaspersky Triada June 2016),(Citation: Krebs-Triada June 2019),(Citation: Kaspersky Triada March 2016),(Citation: Google Triada June 2019)</t>
   </si>
   <si>
     <t>,(Citation: SecurityIntelligence TrickMo)</t>
@@ -2287,7 +2287,7 @@
     <t>,(Citation: ESET-Twitoor)</t>
   </si>
   <si>
-    <t>,(Citation: Bitdefender - Triout 2018),(Citation: SecureList - ViceLeaker 2019)</t>
+    <t>,(Citation: SecureList - ViceLeaker 2019),(Citation: Bitdefender - Triout 2018)</t>
   </si>
   <si>
     <t>,(Citation: Lookout ViperRAT)</t>
@@ -2311,7 +2311,7 @@
     <t>,(Citation: PaloAlto-Xbot)</t>
   </si>
   <si>
-    <t>,(Citation: PaloAlto-XcodeGhost1),(Citation: PaloAlto-XcodeGhost)</t>
+    <t>,(Citation: PaloAlto-XcodeGhost),(Citation: PaloAlto-XcodeGhost1)</t>
   </si>
   <si>
     <t>,(Citation: paloalto_yispecter_1015)</t>
